--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_15-55.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_15-55.xlsx
@@ -62,6 +62,12 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -158,6 +164,9 @@
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
+    <t>KEFLEX 500MG 12 CAP</t>
+  </si>
+  <si>
     <t>LAGAR 15 ML DROPS</t>
   </si>
   <si>
@@ -191,12 +200,18 @@
     <t>3:1</t>
   </si>
   <si>
+    <t>PARAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
     <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
   </si>
   <si>
     <t>1:4</t>
   </si>
   <si>
+    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
     <t>REPAION-N GEL 50 GM</t>
   </si>
   <si>
@@ -287,6 +302,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-1:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -294,9 +312,6 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t>ماكينه حلاقه افوفا 5 قطع</t>
@@ -1049,17 +1064,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1067,7 +1082,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1075,17 +1090,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1093,7 +1108,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1101,17 +1116,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1127,13 +1142,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
@@ -1145,7 +1160,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1153,13 +1168,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
@@ -1179,13 +1194,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
@@ -1197,7 +1212,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1205,13 +1220,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
@@ -1223,7 +1238,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1231,17 +1246,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1257,17 +1272,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1275,7 +1290,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1289,7 +1304,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1301,7 +1316,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1309,17 +1324,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>82.920000000000002</v>
+        <v>41</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>2.3300000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1341,11 +1356,11 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>11</v>
+        <v>82.920000000000002</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>0.20000000000000001</v>
+        <v>2.3300000000000001</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1367,11 +1382,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1387,17 +1402,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1405,7 +1420,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1413,17 +1428,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1439,17 +1454,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1457,7 +1472,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1465,13 +1480,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
@@ -1491,13 +1506,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
@@ -1509,7 +1524,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1523,7 +1538,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>169.19999999999999</v>
+        <v>72</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
@@ -1535,7 +1550,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1549,7 +1564,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>54</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
@@ -1561,7 +1576,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1569,17 +1584,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>27.260000000000002</v>
+        <v>54</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1595,13 +1610,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>9</v>
+        <v>27.260000000000002</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1613,7 +1628,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1621,17 +1636,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>86.5</v>
+        <v>9</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1639,7 +1654,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1647,17 +1662,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>70</v>
+        <v>86.5</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1665,7 +1680,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1673,13 +1688,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
@@ -1691,7 +1706,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1699,17 +1714,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1717,7 +1732,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1725,13 +1740,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
@@ -1751,17 +1766,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>0.33000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1777,13 +1792,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>24.960000000000001</v>
+        <v>108</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
@@ -1795,7 +1810,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1803,17 +1818,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1821,7 +1836,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1829,13 +1844,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>108</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -1847,7 +1862,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1855,17 +1870,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1881,17 +1896,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1899,7 +1914,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1907,17 +1922,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1939,11 +1954,11 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1959,17 +1974,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1977,7 +1992,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1985,13 +2000,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
@@ -2003,7 +2018,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2017,7 +2032,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
@@ -2029,7 +2044,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2037,13 +2052,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
@@ -2055,7 +2070,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2069,11 +2084,11 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>134.40000000000001</v>
+        <v>60</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2081,7 +2096,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2089,13 +2104,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
@@ -2107,7 +2122,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2121,7 +2136,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
@@ -2133,7 +2148,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2141,13 +2156,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
@@ -2159,7 +2174,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2167,17 +2182,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>168</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2193,17 +2208,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>74.689999999999998</v>
+        <v>20</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2219,17 +2234,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2245,17 +2260,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2271,17 +2286,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>24.960000000000001</v>
+        <v>168</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2289,7 +2304,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2297,17 +2312,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>17</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2323,17 +2338,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2349,17 +2364,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>102.59999999999999</v>
+        <v>18</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2375,17 +2390,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>168</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2401,17 +2416,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2419,7 +2434,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2427,17 +2442,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>78.400000000000006</v>
+        <v>69</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2453,13 +2468,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>20</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
@@ -2471,7 +2486,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2479,17 +2494,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2497,7 +2512,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2505,17 +2520,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2523,7 +2538,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2537,11 +2552,11 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>26</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2549,7 +2564,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2557,17 +2572,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2575,7 +2590,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2583,13 +2598,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
@@ -2601,7 +2616,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2609,17 +2624,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2627,7 +2642,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2635,17 +2650,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2667,11 +2682,11 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2687,13 +2702,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
@@ -2705,7 +2720,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2713,13 +2728,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
@@ -2731,7 +2746,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2739,51 +2754,155 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" ht="26.25" customHeight="1">
-      <c r="K75" s="11">
-        <v>4684.3599999999997</v>
-      </c>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" ht="25.5" customHeight="1">
+      <c r="A75" s="6">
+        <v>72</v>
+      </c>
+      <c t="s" r="B75" s="7">
+        <v>103</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c t="s" r="H75" s="8">
+        <v>104</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="9">
+        <v>72</v>
+      </c>
+      <c r="M75" s="9"/>
+      <c r="N75" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" ht="24.75" customHeight="1">
+      <c r="A76" s="6">
+        <v>73</v>
+      </c>
+      <c t="s" r="B76" s="7">
         <v>105</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c t="s" r="F76" s="13">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c t="s" r="H76" s="8">
         <v>106</v>
       </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="14"/>
-      <c t="s" r="I76" s="15">
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="9">
+        <v>45</v>
+      </c>
+      <c r="M76" s="9"/>
+      <c r="N76" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="6">
+        <v>74</v>
+      </c>
+      <c t="s" r="B77" s="7">
         <v>107</v>
       </c>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c t="s" r="H77" s="8">
+        <v>90</v>
+      </c>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="9">
+        <v>35</v>
+      </c>
+      <c r="M77" s="9"/>
+      <c r="N77" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" ht="25.5" customHeight="1">
+      <c r="A78" s="6">
+        <v>75</v>
+      </c>
+      <c t="s" r="B78" s="7">
+        <v>108</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c t="s" r="H78" s="8">
+        <v>109</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="9">
+        <v>30</v>
+      </c>
+      <c r="M78" s="9"/>
+      <c r="N78" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="K79" s="11">
+        <v>4854.3599999999997</v>
+      </c>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="12">
+        <v>110</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c t="s" r="F80" s="13">
+        <v>111</v>
+      </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="14"/>
+      <c t="s" r="I80" s="15">
+        <v>112</v>
+      </c>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="224">
+  <mergeCells count="236">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3004,10 +3123,22 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="I76:N76"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="I80:N80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
